--- a/Modello/nuovi modelli/inputTesiOriginali/test5/Soluzioni-1.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test5/Soluzioni-1.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19917" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58915" uniqueCount="870">
   <si>
     <t>ANSPs</t>
   </si>

--- a/Modello/nuovi modelli/inputTesiOriginali/test5/Soluzioni-1.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test5/Soluzioni-1.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58915" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79820" uniqueCount="870">
   <si>
     <t>ANSPs</t>
   </si>
@@ -30492,55 +30492,55 @@
         <v>43</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>88</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>88</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>88</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="S7" s="5" t="s">
         <v>88</v>
@@ -30549,31 +30549,31 @@
         <v>88</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="X7" s="5" t="s">
         <v>88</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="AB7" s="5" t="s">
         <v>88</v>
       </c>
       <c r="AC7" s="5" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="AD7" s="5" t="s">
         <v>88</v>
@@ -30582,25 +30582,25 @@
         <v>88</v>
       </c>
       <c r="AF7" s="5" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="AG7" s="5" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="AH7" s="5" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
       <c r="AI7" s="5" t="s">
         <v>88</v>
       </c>
       <c r="AJ7" s="5" t="s">
-        <v>816</v>
+        <v>805</v>
       </c>
       <c r="AK7" s="5" t="s">
-        <v>841</v>
+        <v>830</v>
       </c>
       <c r="AL7" s="5" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
     </row>
     <row r="8">
@@ -32928,115 +32928,115 @@
         <v>64</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>88</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="Y28" s="5" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="Z28" s="5" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="AA28" s="5" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="AC28" s="5" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="AD28" s="5" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="AE28" s="5" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="AF28" s="5" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="AG28" s="5" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="AH28" s="5" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
       <c r="AI28" s="5" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="AJ28" s="5" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="AK28" s="5" t="s">
-        <v>842</v>
+        <v>831</v>
       </c>
       <c r="AL28" s="5" t="s">
-        <v>868</v>
+        <v>857</v>
       </c>
     </row>
     <row r="29">
@@ -34204,115 +34204,115 @@
         <v>79</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="Q39" s="5" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="R39" s="5" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="S39" s="5" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="T39" s="5" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="U39" s="5" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="V39" s="5" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="W39" s="5" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="X39" s="5" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="Y39" s="5" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="Z39" s="5" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="AA39" s="5" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="AB39" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="AC39" s="5" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="AD39" s="5" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="AE39" s="5" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="AF39" s="5" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="AG39" s="5" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="AH39" s="5" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="AI39" s="5" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="AJ39" s="5" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="AK39" s="5" t="s">
-        <v>843</v>
+        <v>832</v>
       </c>
       <c r="AL39" s="5" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
     </row>
     <row r="40">
@@ -34320,115 +34320,115 @@
         <v>85</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="Q40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="R40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="S40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="T40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="U40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="V40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="W40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="X40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="Y40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="Z40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="AA40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="AB40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="AC40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="AD40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="AE40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="AF40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="AG40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="AH40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="AI40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="AJ40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="AK40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="AL40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41">
@@ -34436,115 +34436,115 @@
         <v>86</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>106</v>
+        <v>212</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>106</v>
+        <v>237</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>106</v>
+        <v>263</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>106</v>
+        <v>276</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>106</v>
+        <v>289</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>106</v>
+        <v>303</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>106</v>
+        <v>317</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>106</v>
+        <v>342</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>106</v>
+        <v>368</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>106</v>
+        <v>393</v>
       </c>
       <c r="R41" s="5" t="s">
-        <v>106</v>
+        <v>419</v>
       </c>
       <c r="S41" s="5" t="s">
-        <v>106</v>
+        <v>445</v>
       </c>
       <c r="T41" s="5" t="s">
-        <v>106</v>
+        <v>468</v>
       </c>
       <c r="U41" s="5" t="s">
-        <v>106</v>
+        <v>492</v>
       </c>
       <c r="V41" s="5" t="s">
-        <v>106</v>
+        <v>518</v>
       </c>
       <c r="W41" s="5" t="s">
-        <v>106</v>
+        <v>542</v>
       </c>
       <c r="X41" s="5" t="s">
-        <v>106</v>
+        <v>567</v>
       </c>
       <c r="Y41" s="5" t="s">
-        <v>106</v>
+        <v>579</v>
       </c>
       <c r="Z41" s="5" t="s">
-        <v>106</v>
+        <v>604</v>
       </c>
       <c r="AA41" s="5" t="s">
-        <v>106</v>
+        <v>617</v>
       </c>
       <c r="AB41" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="AC41" s="5" t="s">
-        <v>106</v>
+        <v>638</v>
       </c>
       <c r="AD41" s="5" t="s">
-        <v>106</v>
+        <v>663</v>
       </c>
       <c r="AE41" s="5" t="s">
-        <v>106</v>
+        <v>686</v>
       </c>
       <c r="AF41" s="5" t="s">
-        <v>106</v>
+        <v>709</v>
       </c>
       <c r="AG41" s="5" t="s">
-        <v>106</v>
+        <v>734</v>
       </c>
       <c r="AH41" s="5" t="s">
-        <v>106</v>
+        <v>761</v>
       </c>
       <c r="AI41" s="5" t="s">
-        <v>106</v>
+        <v>784</v>
       </c>
       <c r="AJ41" s="5" t="s">
-        <v>106</v>
+        <v>807</v>
       </c>
       <c r="AK41" s="5" t="s">
-        <v>106</v>
+        <v>832</v>
       </c>
       <c r="AL41" s="5" t="s">
-        <v>106</v>
+        <v>858</v>
       </c>
     </row>
     <row r="42">
